--- a/Data/Madrid/Madrid_links.xlsx
+++ b/Data/Madrid/Madrid_links.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Maria/Desktop/Madrid/datos_modificados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Maria/Documents/dataproject1/Data/Madrid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6800FFC2-F55D-F640-89A3-096A3A956110}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822159CA-9801-BC4F-A6D2-9CF7C1414DD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="15920" xr2:uid="{61A3DB3B-CB54-5249-B16B-EA9B42CAA018}"/>
+    <workbookView xWindow="1000" yWindow="3360" windowWidth="28040" windowHeight="15920" xr2:uid="{61A3DB3B-CB54-5249-B16B-EA9B42CAA018}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -277,7 +277,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -320,6 +320,14 @@
       <u/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -370,7 +378,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -393,6 +401,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -711,7 +720,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -943,7 +952,7 @@
       <c r="A13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="22" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -971,7 +980,7 @@
       <c r="A14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="22" t="s">
         <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1001,7 +1010,7 @@
       <c r="A15" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="22" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="16" t="s">

--- a/Data/Madrid/Madrid_links.xlsx
+++ b/Data/Madrid/Madrid_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Maria/Documents/dataproject1/Data/Madrid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822159CA-9801-BC4F-A6D2-9CF7C1414DD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56865841-AB4D-9945-9DBB-B2430D58D8A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="3360" windowWidth="28040" windowHeight="15920" xr2:uid="{61A3DB3B-CB54-5249-B16B-EA9B42CAA018}"/>
+    <workbookView xWindow="1380" yWindow="2120" windowWidth="28040" windowHeight="15920" xr2:uid="{61A3DB3B-CB54-5249-B16B-EA9B42CAA018}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="86">
   <si>
     <t>ENCUESTA</t>
   </si>
@@ -270,14 +270,26 @@
     <t>https://databank.bancomundial.org/reports.aspx?source=2&amp;series=SP.DYN.LE00.IN&amp;country=ESP</t>
   </si>
   <si>
-    <t>https://databank.bancomundial.org/reports.aspx?source=2&amp;series=FP.CPI.TOTL.ZG&amp;country=ESP#</t>
+    <t>https://www.ine.es/jaxiT3/Datos.htm?t=22350#!tabs-tabla</t>
+  </si>
+  <si>
+    <t>https://datos.madrid.es/portal/site/egob/menuitem.c05c1f754a33a9fbe4b2e4b284f1a5a0/?vgnextoid=842385ce457a8410VgnVCM2000000c205a0aRCRD&amp;vgnextchannel=374512b9ace9f310VgnVCM100000171f5a0aRCRD&amp;vgnextfmt=default</t>
+  </si>
+  <si>
+    <t>film</t>
+  </si>
+  <si>
+    <t>museums</t>
+  </si>
+  <si>
+    <t>https://opendata.esri.es/datasets/museos-de-madrid/data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -312,14 +324,6 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -378,7 +382,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -400,8 +404,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -717,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750D55BB-5FEF-4D45-BF1B-7F39A4C2DCCE}">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A18" sqref="A18:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -822,6 +832,9 @@
       <c r="E7" s="6" t="s">
         <v>56</v>
       </c>
+      <c r="F7" s="22" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -839,6 +852,7 @@
       <c r="E8" s="6" t="s">
         <v>56</v>
       </c>
+      <c r="F8" s="24"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
@@ -856,7 +870,7 @@
       <c r="E9" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="22" t="s">
         <v>34</v>
       </c>
       <c r="G9" s="12"/>
@@ -884,7 +898,7 @@
       <c r="E10" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="22" t="s">
         <v>37</v>
       </c>
       <c r="G10" s="12"/>
@@ -912,7 +926,7 @@
       <c r="E11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="12"/>
+      <c r="F11" s="22"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
@@ -938,7 +952,7 @@
       <c r="E12" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="12"/>
+      <c r="F12" s="22"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
@@ -952,7 +966,7 @@
       <c r="A13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -964,7 +978,7 @@
       <c r="E13" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="25" t="s">
         <v>32</v>
       </c>
       <c r="G13" s="12"/>
@@ -980,7 +994,7 @@
       <c r="A14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="21" t="s">
         <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -992,7 +1006,7 @@
       <c r="E14" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="22" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="12" t="s">
@@ -1010,7 +1024,7 @@
       <c r="A15" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="16" t="s">
@@ -1022,7 +1036,7 @@
       <c r="E15" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="22" t="s">
         <v>73</v>
       </c>
       <c r="G15" s="12"/>
@@ -1050,7 +1064,7 @@
       <c r="E16" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="22" t="s">
         <v>74</v>
       </c>
       <c r="G16" s="12"/>
@@ -1078,7 +1092,7 @@
       <c r="E17" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="22" t="s">
         <v>79</v>
       </c>
       <c r="G17" s="12"/>
@@ -1091,29 +1105,23 @@
       <c r="N17" s="12"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>36</v>
-      </c>
+      <c r="B18" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" s="12"/>
       <c r="H18" s="12"/>
-      <c r="I18" s="12" t="s">
-        <v>22</v>
-      </c>
+      <c r="I18" s="12"/>
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
@@ -1121,20 +1129,24 @@
       <c r="N18" s="12"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8" t="s">
+      <c r="B19" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="F19" s="12"/>
+      <c r="F19" s="22" t="s">
+        <v>82</v>
+      </c>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
@@ -1145,46 +1157,52 @@
       <c r="N19" s="12"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8" t="s">
+      <c r="B20" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
+      <c r="F20" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
+      <c r="I20" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>82</v>
+      </c>
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="12"/>
+      <c r="A21" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="22"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
@@ -1195,24 +1213,20 @@
       <c r="N21" s="12"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>81</v>
-      </c>
+      <c r="A22" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="22"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
@@ -1223,26 +1237,24 @@
       <c r="N22" s="12"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>77</v>
-      </c>
+      <c r="A23" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="22"/>
       <c r="G23" s="12"/>
-      <c r="H23" s="11"/>
+      <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
@@ -1252,22 +1264,22 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="16" t="s">
-        <v>62</v>
+      <c r="D24" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="12" t="s">
-        <v>78</v>
+      <c r="F24" s="22" t="s">
+        <v>81</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
@@ -1279,26 +1291,26 @@
       <c r="N24" s="12"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>35</v>
+      <c r="A25" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>77</v>
       </c>
       <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
+      <c r="H25" s="11"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
@@ -1307,22 +1319,24 @@
       <c r="N25" s="12"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="15" t="s">
+      <c r="A26" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" s="12"/>
+      <c r="D26" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>78</v>
+      </c>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
@@ -1334,21 +1348,23 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>61</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" s="12"/>
+        <v>52</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>35</v>
+      </c>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
@@ -1359,24 +1375,22 @@
       <c r="N27" s="12"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="3" t="s">
+      <c r="A28" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>80</v>
-      </c>
+      <c r="D28" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="22"/>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
@@ -1387,6 +1401,22 @@
       <c r="N28" s="12"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="22"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
@@ -1397,6 +1427,24 @@
       <c r="N29" s="12"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>80</v>
+      </c>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
@@ -1406,7 +1454,31 @@
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
     </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F31" s="23"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F25" r:id="rId1" xr:uid="{738E1DBD-CBEB-F14A-BEE7-34C5D3BD8AB6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/Madrid/Madrid_links.xlsx
+++ b/Data/Madrid/Madrid_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Maria/Documents/dataproject1/Data/Madrid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56865841-AB4D-9945-9DBB-B2430D58D8A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75419CD3-06C8-9F42-A3D7-4DC4DAF2A4F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="2120" windowWidth="28040" windowHeight="15920" xr2:uid="{61A3DB3B-CB54-5249-B16B-EA9B42CAA018}"/>
+    <workbookView xWindow="760" yWindow="520" windowWidth="28040" windowHeight="15920" xr2:uid="{61A3DB3B-CB54-5249-B16B-EA9B42CAA018}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -90,9 +90,6 @@
     <t>OCIO</t>
   </si>
   <si>
-    <t>Arte: número museos, teatros, cines (suma); Restauración: número de bares y restaurantes; Deporte: número de gyms</t>
-  </si>
-  <si>
     <t>leisure</t>
   </si>
   <si>
@@ -283,6 +280,9 @@
   </si>
   <si>
     <t>https://opendata.esri.es/datasets/museos-de-madrid/data</t>
+  </si>
+  <si>
+    <t>http://www-2.munimadrid.es/CSE6/control/seleccionDatos?numSerie=2010300010</t>
   </si>
 </sst>
 </file>
@@ -729,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750D55BB-5FEF-4D45-BF1B-7F39A4C2DCCE}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:E23"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -807,13 +807,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -824,16 +824,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -844,13 +844,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F8" s="24"/>
     </row>
@@ -862,16 +862,16 @@
         <v>9</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -887,19 +887,19 @@
         <v>10</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
@@ -918,13 +918,13 @@
         <v>12</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="12"/>
@@ -944,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="12"/>
@@ -970,16 +970,16 @@
         <v>16</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
@@ -995,22 +995,22 @@
         <v>15</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F14" s="22" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
@@ -1025,19 +1025,19 @@
         <v>15</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -1056,16 +1056,16 @@
         <v>19</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
@@ -1081,19 +1081,19 @@
         <v>18</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
@@ -1109,15 +1109,15 @@
         <v>20</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
       <c r="F18" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
@@ -1133,19 +1133,19 @@
         <v>20</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
@@ -1161,27 +1161,27 @@
         <v>20</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="28"/>
       <c r="D20" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
@@ -1193,14 +1193,14 @@
         <v>20</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="28"/>
       <c r="D21" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="12"/>
@@ -1217,14 +1217,14 @@
         <v>20</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="28"/>
       <c r="D22" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="12"/>
@@ -1238,19 +1238,19 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="12"/>
@@ -1264,22 +1264,22 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="20" t="s">
-        <v>24</v>
-      </c>
       <c r="C24" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
@@ -1292,22 +1292,22 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="20" t="s">
-        <v>26</v>
-      </c>
       <c r="C25" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="11"/>
@@ -1320,22 +1320,22 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="20" t="s">
-        <v>28</v>
-      </c>
       <c r="C26" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
@@ -1348,22 +1348,22 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
@@ -1376,19 +1376,19 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="12"/>
@@ -1402,19 +1402,19 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="12"/>
@@ -1428,22 +1428,22 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="16" t="s">
-        <v>31</v>
-      </c>
       <c r="C30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
